--- a/output/ejecucion_2/results/base_17_19/base_17_19_results_training.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_results_training.xlsx
@@ -468,34 +468,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.923</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.681</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.482</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.897</v>
       </c>
       <c r="G2">
-        <v>0.993</v>
+        <v>0.999</v>
       </c>
       <c r="H2">
         <v>0.945</v>
       </c>
       <c r="I2">
-        <v>0.486</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>0.053</v>
+        <v>0.018</v>
       </c>
       <c r="K2">
-        <v>0.096</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,13 +503,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.887</v>
+        <v>0.886</v>
       </c>
       <c r="C3">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="D3">
-        <v>0.145</v>
+        <v>0.544</v>
       </c>
       <c r="E3">
         <v>0.133</v>
@@ -518,19 +518,19 @@
         <v>0.903</v>
       </c>
       <c r="G3">
-        <v>0.98</v>
+        <v>0.978</v>
       </c>
       <c r="H3">
-        <v>0.9399999999999999</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="I3">
-        <v>0.344</v>
+        <v>0.337</v>
       </c>
       <c r="J3">
-        <v>0.092</v>
+        <v>0.095</v>
       </c>
       <c r="K3">
-        <v>0.145</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0.999</v>
@@ -559,13 +559,13 @@
         <v>0.9389999999999999</v>
       </c>
       <c r="I4">
-        <v>0.333</v>
+        <v>0.337</v>
       </c>
       <c r="J4">
-        <v>0.095</v>
+        <v>0.098</v>
       </c>
       <c r="K4">
-        <v>0.148</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,28 +579,28 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="F5">
         <v>0.905</v>
       </c>
       <c r="G5">
-        <v>0.975</v>
+        <v>0.966</v>
       </c>
       <c r="H5">
-        <v>0.9379999999999999</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I5">
-        <v>0.348</v>
+        <v>0.308</v>
       </c>
       <c r="J5">
-        <v>0.116</v>
+        <v>0.131</v>
       </c>
       <c r="K5">
-        <v>0.174</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,7 +614,7 @@
         <v>0.831</v>
       </c>
       <c r="D6">
-        <v>0.015</v>
+        <v>0.48</v>
       </c>
       <c r="E6">
         <v>0.064</v>
@@ -649,7 +649,7 @@
         <v>0.885</v>
       </c>
       <c r="D7">
-        <v>0.276</v>
+        <v>0.613</v>
       </c>
       <c r="E7">
         <v>0.306</v>
@@ -684,7 +684,7 @@
         <v>0.914</v>
       </c>
       <c r="D8">
-        <v>0.374</v>
+        <v>0.664</v>
       </c>
       <c r="E8">
         <v>0.406</v>
@@ -719,7 +719,7 @@
         <v>0.923</v>
       </c>
       <c r="D9">
-        <v>0.488</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E9">
         <v>0.471</v>

--- a/output/ejecucion_2/results/base_17_19/base_17_19_results_training.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_results_training.xlsx
@@ -468,34 +468,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.923</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.978</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.681</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.482</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.897</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
       <c r="H2">
         <v>0.945</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.486</v>
       </c>
       <c r="J2">
-        <v>0.018</v>
+        <v>0.053</v>
       </c>
       <c r="K2">
-        <v>0.035</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,13 +503,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.886</v>
+        <v>0.887</v>
       </c>
       <c r="C3">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="D3">
-        <v>0.544</v>
+        <v>0.145</v>
       </c>
       <c r="E3">
         <v>0.133</v>
@@ -518,19 +518,19 @@
         <v>0.903</v>
       </c>
       <c r="G3">
-        <v>0.978</v>
+        <v>0.98</v>
       </c>
       <c r="H3">
-        <v>0.9389999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I3">
-        <v>0.337</v>
+        <v>0.344</v>
       </c>
       <c r="J3">
-        <v>0.095</v>
+        <v>0.092</v>
       </c>
       <c r="K3">
-        <v>0.148</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="E4">
         <v>0.999</v>
@@ -559,13 +559,13 @@
         <v>0.9389999999999999</v>
       </c>
       <c r="I4">
-        <v>0.337</v>
+        <v>0.333</v>
       </c>
       <c r="J4">
-        <v>0.098</v>
+        <v>0.095</v>
       </c>
       <c r="K4">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,28 +579,28 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.905</v>
       </c>
       <c r="G5">
-        <v>0.966</v>
+        <v>0.975</v>
       </c>
       <c r="H5">
-        <v>0.9350000000000001</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="I5">
-        <v>0.308</v>
+        <v>0.348</v>
       </c>
       <c r="J5">
-        <v>0.131</v>
+        <v>0.116</v>
       </c>
       <c r="K5">
-        <v>0.183</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,7 +614,7 @@
         <v>0.831</v>
       </c>
       <c r="D6">
-        <v>0.48</v>
+        <v>0.015</v>
       </c>
       <c r="E6">
         <v>0.064</v>
@@ -649,7 +649,7 @@
         <v>0.885</v>
       </c>
       <c r="D7">
-        <v>0.613</v>
+        <v>0.276</v>
       </c>
       <c r="E7">
         <v>0.306</v>
@@ -684,7 +684,7 @@
         <v>0.914</v>
       </c>
       <c r="D8">
-        <v>0.664</v>
+        <v>0.374</v>
       </c>
       <c r="E8">
         <v>0.406</v>
@@ -719,7 +719,7 @@
         <v>0.923</v>
       </c>
       <c r="D9">
-        <v>0.6840000000000001</v>
+        <v>0.488</v>
       </c>
       <c r="E9">
         <v>0.471</v>
